--- a/Utilities/Table Excel Files/Tbl_Users.xlsx
+++ b/Utilities/Table Excel Files/Tbl_Users.xlsx
@@ -1,113 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59e8507f594711a5/Credit Hunter/Utilities/Table Excel Files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_A52A79AB48C5B2E4856A335B7621A8737A6E50A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{224D0D43-50E2-4911-99C4-4FCB002A0456}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet name="Tbl_Users" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" r:id="rId1" name="Tbl_Users"/>
   </sheets>
   <definedNames>
-    <definedName name="Tbl_Users">Tbl_Users!$A$1:$Q$3</definedName>
+    <definedName name="Tbl_Users">'Tbl_Users'!$A$1:$Q$3</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>EmailText</t>
-  </si>
-  <si>
-    <t>Querywithoutcreditcontroller</t>
-  </si>
-  <si>
-    <t>Onaccountsstillopen</t>
-  </si>
-  <si>
-    <t>Whopaidyesterdayroutine</t>
-  </si>
-  <si>
-    <t>QuerywithoutcreditcontrollerEvery</t>
-  </si>
-  <si>
-    <t>OnaccountsstillopenEvery</t>
-  </si>
-  <si>
-    <t>WhopaidyesterdayroutineEvery</t>
-  </si>
-  <si>
-    <t>Signature</t>
-  </si>
-  <si>
-    <t>Superuser</t>
-  </si>
-  <si>
-    <t>E-mailAddress</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>RetypePassword</t>
-  </si>
-  <si>
-    <t>EmailInterface</t>
-  </si>
-  <si>
-    <t>EmailSentToSender</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Alberto</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>alberto</t>
-  </si>
-  <si>
-    <t>alberto.paganini70@gmail.com</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="MS Sans Serif"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -129,35 +44,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,7 +99,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -229,7 +133,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,10 +167,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,130 +342,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="181.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>UserName</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>EmailText</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Querywithoutcreditcontroller</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Onaccountsstillopen</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Whopaidyesterdayroutine</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>QuerywithoutcreditcontrollerEvery</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>OnaccountsstillopenEvery</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>WhopaidyesterdayroutineEvery</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>Signature</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Superuser</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>E-mailAddress</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>RetypePassword</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>EmailInterface</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>EmailSentToSender</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>alberto</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Alberto</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>alberto.paganini70@gmail.com</t>
+        </is>
+      </c>
+      <c r="Q2" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="b">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="0" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{627877A4-2C1B-4263-A399-62236F466386}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>